--- a/files-example/ProvisionalesFonosalud_F2_Artefacto LD AS-IS.xlsx
+++ b/files-example/ProvisionalesFonosalud_F2_Artefacto LD AS-IS.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0b2ea08cfefb535b/Documents/AI_MASTER/Proyecto_III_de_innovación_tecnologica_en_IA/proyecto_final_mia/files-example/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0b2ea08cfefb535b/Documents/AI_MASTER/Proyecto_III_de_innovación_tecnologica_en_IA/rac-assistant - copia/files-example/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="16" documentId="11_80702AC9413F0F127BE07DF7D72A10E56E822426" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{62CF2A3D-6EB7-401E-BD28-0C63E4FB146D}"/>
   <bookViews>
-    <workbookView xWindow="1416" yWindow="1212" windowWidth="21624" windowHeight="12468" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -306,10 +306,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
@@ -510,7 +506,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="F1" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="G1" workbookViewId="0">
       <selection activeCell="K2" sqref="K2:K15"/>
     </sheetView>
   </sheetViews>
@@ -28867,7 +28863,7 @@
       <c r="Z1000" s="3"/>
     </row>
   </sheetData>
-  <dataValidations disablePrompts="1" count="2">
+  <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="A2:A12" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"AS-IS,TO-BE"</formula1>
     </dataValidation>
